--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3145,6 +3145,41 @@
         <v>126900</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1758900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3180,6 +3180,41 @@
         <v>1758900</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1880000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3215,6 +3215,41 @@
         <v>1880000</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I82" t="n">
+        <v>499300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3250,6 +3250,41 @@
         <v>499300</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I83" t="n">
+        <v>848300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3285,6 +3285,41 @@
         <v>848300</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I84" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3320,6 +3320,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2790000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3355,6 +3355,41 @@
         <v>2790000</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4706600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3390,6 +3390,41 @@
         <v>4706600</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I87" t="n">
+        <v>348500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,6 +3425,41 @@
         <v>348500</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5303000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3460,6 +3460,41 @@
         <v>5303000</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1590400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3495,6 +3495,41 @@
         <v>1590400</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I90" t="n">
+        <v>32500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3530,6 +3530,41 @@
         <v>32500</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I91" t="n">
+        <v>7139100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,6 +3565,76 @@
         <v>7139100</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1442000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>370000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3635,6 +3635,76 @@
         <v>370000</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I94" t="n">
+        <v>829900</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2301000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3705,6 +3705,41 @@
         <v>2301000</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2395900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3740,6 +3740,41 @@
         <v>2395900</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1229100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3775,6 +3775,41 @@
         <v>1229100</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1876400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3810,6 +3810,41 @@
         <v>1876400</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I99" t="n">
+        <v>602000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3845,6 +3845,76 @@
         <v>602000</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I100" t="n">
+        <v>183000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3915,6 +3915,41 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I102" t="n">
+        <v>445600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3950,6 +3950,41 @@
         <v>445600</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I103" t="n">
+        <v>123000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,11 +1430,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F31" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H31" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I31" t="n">
-        <v>103500</v>
+        <v>480400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1483,28 +1483,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F32" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G32" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H32" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="I32" t="n">
-        <v>1253300</v>
+        <v>640300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1518,28 +1518,28 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.235</v>
+        <v>0.225</v>
       </c>
       <c r="F33" t="n">
-        <v>0.235</v>
+        <v>0.225</v>
       </c>
       <c r="G33" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="H33" t="n">
-        <v>0.235</v>
+        <v>0.225</v>
       </c>
       <c r="I33" t="n">
-        <v>95700</v>
+        <v>56800</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="F34" t="n">
         <v>0.23</v>
@@ -1562,19 +1562,19 @@
         <v>0.225</v>
       </c>
       <c r="H34" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>173600</v>
+        <v>523000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1594,22 +1594,22 @@
         <v>0.23</v>
       </c>
       <c r="G35" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H35" t="n">
         <v>0.225</v>
       </c>
       <c r="I35" t="n">
-        <v>290200</v>
+        <v>429600</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1629,22 +1629,22 @@
         <v>0.225</v>
       </c>
       <c r="G36" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H36" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="I36" t="n">
-        <v>209500</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1670,16 +1670,16 @@
         <v>0.225</v>
       </c>
       <c r="I37" t="n">
-        <v>407600</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1696,25 +1696,25 @@
         <v>0.225</v>
       </c>
       <c r="F38" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="G38" t="n">
         <v>0.225</v>
       </c>
       <c r="H38" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="I38" t="n">
-        <v>250700</v>
+        <v>503000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1734,22 +1734,22 @@
         <v>0.225</v>
       </c>
       <c r="G39" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H39" t="n">
         <v>0.225</v>
       </c>
       <c r="I39" t="n">
-        <v>310300</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1763,28 +1763,28 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F40" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="G40" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H40" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I40" t="n">
-        <v>263000</v>
+        <v>103500</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1798,28 +1798,28 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="F41" t="n">
-        <v>0.235</v>
+        <v>0.24</v>
       </c>
       <c r="G41" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H41" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I41" t="n">
-        <v>100000</v>
+        <v>1253300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1833,28 +1833,28 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="F42" t="n">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="G42" t="n">
         <v>0.23</v>
       </c>
       <c r="H42" t="n">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="I42" t="n">
-        <v>102500</v>
+        <v>95700</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1874,24 +1874,22 @@
         <v>0.23</v>
       </c>
       <c r="G43" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="H43" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.225</v>
+      </c>
+      <c r="I43" t="n">
+        <v>173600</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1905,10 +1903,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="F44" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="G44" t="n">
         <v>0.225</v>
@@ -1917,16 +1915,16 @@
         <v>0.225</v>
       </c>
       <c r="I44" t="n">
-        <v>24200</v>
+        <v>290200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1943,7 +1941,7 @@
         <v>0.225</v>
       </c>
       <c r="F45" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="G45" t="n">
         <v>0.225</v>
@@ -1952,16 +1950,16 @@
         <v>0.225</v>
       </c>
       <c r="I45" t="n">
-        <v>116800</v>
+        <v>209500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1984,19 +1982,19 @@
         <v>0.22</v>
       </c>
       <c r="H46" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I46" t="n">
-        <v>102000</v>
+        <v>407600</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,28 +2008,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F47" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="G47" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H47" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="I47" t="n">
-        <v>50100</v>
+        <v>250700</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2057,16 +2055,16 @@
         <v>0.225</v>
       </c>
       <c r="I48" t="n">
-        <v>40000</v>
+        <v>310300</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2080,28 +2078,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="F49" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="G49" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H49" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="I49" t="n">
-        <v>66500</v>
+        <v>263000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2115,28 +2113,28 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="F50" t="n">
-        <v>0.225</v>
+        <v>0.235</v>
       </c>
       <c r="G50" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I50" t="n">
-        <v>413700</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,28 +2148,28 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="F51" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="G51" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H51" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I51" t="n">
-        <v>138400</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2191,22 +2189,24 @@
         <v>0.23</v>
       </c>
       <c r="G52" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H52" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I52" t="n">
-        <v>281100</v>
+        <v>0.23</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2220,28 +2220,28 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F53" t="n">
         <v>0.225</v>
       </c>
       <c r="G53" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H53" t="n">
         <v>0.225</v>
       </c>
       <c r="I53" t="n">
-        <v>101300</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2255,28 +2255,28 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F54" t="n">
         <v>0.23</v>
       </c>
       <c r="G54" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H54" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="I54" t="n">
-        <v>116700</v>
+        <v>116800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2290,28 +2290,28 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="F55" t="n">
-        <v>0.25</v>
+        <v>0.225</v>
       </c>
       <c r="G55" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H55" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="I55" t="n">
-        <v>3224900</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2325,28 +2325,28 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F56" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="G56" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H56" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="I56" t="n">
-        <v>57900</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2372,16 +2372,16 @@
         <v>0.225</v>
       </c>
       <c r="I57" t="n">
-        <v>923500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2401,22 +2401,22 @@
         <v>0.225</v>
       </c>
       <c r="G58" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H58" t="n">
         <v>0.225</v>
       </c>
       <c r="I58" t="n">
-        <v>175000</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2430,28 +2430,28 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F59" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="G59" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H59" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="I59" t="n">
-        <v>75000</v>
+        <v>413700</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2465,28 +2465,28 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="F60" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="G60" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H60" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="I60" t="n">
-        <v>111600</v>
+        <v>138400</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2512,16 +2512,16 @@
         <v>0.22</v>
       </c>
       <c r="I61" t="n">
-        <v>78800</v>
+        <v>281100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="F62" t="n">
         <v>0.225</v>
@@ -2544,19 +2544,19 @@
         <v>0.22</v>
       </c>
       <c r="H62" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I62" t="n">
-        <v>130000</v>
+        <v>101300</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2573,25 +2573,25 @@
         <v>0.22</v>
       </c>
       <c r="F63" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G63" t="n">
         <v>0.22</v>
       </c>
       <c r="H63" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I63" t="n">
-        <v>209000</v>
+        <v>116700</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2605,28 +2605,28 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F64" t="n">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="G64" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="H64" t="n">
-        <v>0.225</v>
+        <v>0.235</v>
       </c>
       <c r="I64" t="n">
-        <v>510100</v>
+        <v>3224900</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2640,28 +2640,28 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="F65" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="G65" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="H65" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="I65" t="n">
-        <v>477500</v>
+        <v>57900</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2675,28 +2675,28 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F66" t="n">
         <v>0.225</v>
       </c>
       <c r="G66" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H66" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I66" t="n">
-        <v>90900</v>
+        <v>923500</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F67" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="G67" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H67" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I67" t="n">
-        <v>31300</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2745,28 +2745,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F68" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="G68" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H68" t="n">
         <v>0.225</v>
       </c>
       <c r="I68" t="n">
-        <v>20300</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2780,28 +2780,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F69" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G69" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H69" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I69" t="n">
-        <v>43500</v>
+        <v>111600</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F70" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G70" t="n">
         <v>0.22</v>
@@ -2827,16 +2827,16 @@
         <v>0.22</v>
       </c>
       <c r="I70" t="n">
-        <v>226800</v>
+        <v>78800</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F71" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="G71" t="n">
         <v>0.22</v>
@@ -2862,16 +2862,16 @@
         <v>0.22</v>
       </c>
       <c r="I71" t="n">
-        <v>58000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2897,16 +2897,16 @@
         <v>0.22</v>
       </c>
       <c r="I72" t="n">
-        <v>33000</v>
+        <v>209000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2923,25 +2923,25 @@
         <v>0.22</v>
       </c>
       <c r="F73" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="G73" t="n">
         <v>0.215</v>
       </c>
       <c r="H73" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="I73" t="n">
-        <v>792700</v>
+        <v>510100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2955,28 +2955,28 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F74" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="G74" t="n">
         <v>0.215</v>
       </c>
       <c r="H74" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="I74" t="n">
-        <v>100000</v>
+        <v>477500</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2990,28 +2990,28 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F75" t="n">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="G75" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H75" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I75" t="n">
-        <v>100</v>
+        <v>90900</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3025,28 +3025,28 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F76" t="n">
         <v>0.22</v>
       </c>
       <c r="G76" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H76" t="n">
         <v>0.22</v>
       </c>
       <c r="I76" t="n">
-        <v>162900</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3063,25 +3063,25 @@
         <v>0.22</v>
       </c>
       <c r="F77" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="G77" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="H77" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="I77" t="n">
-        <v>207000</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3095,28 +3095,28 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="F78" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G78" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="H78" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I78" t="n">
-        <v>140000</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3130,28 +3130,28 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F79" t="n">
         <v>0.22</v>
       </c>
       <c r="G79" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H79" t="n">
         <v>0.22</v>
       </c>
       <c r="I79" t="n">
-        <v>126900</v>
+        <v>226800</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3168,25 +3168,25 @@
         <v>0.22</v>
       </c>
       <c r="F80" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G80" t="n">
         <v>0.22</v>
       </c>
       <c r="H80" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="I80" t="n">
-        <v>1758900</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3200,28 +3200,28 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="F81" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G81" t="n">
         <v>0.22</v>
       </c>
       <c r="H81" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I81" t="n">
-        <v>1880000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3235,28 +3235,28 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="F82" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="G82" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="H82" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="I82" t="n">
-        <v>499300</v>
+        <v>792700</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3270,28 +3270,28 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="F83" t="n">
-        <v>0.235</v>
+        <v>0.215</v>
       </c>
       <c r="G83" t="n">
-        <v>0.225</v>
+        <v>0.215</v>
       </c>
       <c r="H83" t="n">
-        <v>0.235</v>
+        <v>0.215</v>
       </c>
       <c r="I83" t="n">
-        <v>848300</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3305,28 +3305,28 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F84" t="n">
-        <v>0.235</v>
+        <v>0.21</v>
       </c>
       <c r="G84" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H84" t="n">
-        <v>0.235</v>
+        <v>0.21</v>
       </c>
       <c r="I84" t="n">
-        <v>62000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3340,28 +3340,28 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F85" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="G85" t="n">
-        <v>0.225</v>
+        <v>0.21</v>
       </c>
       <c r="H85" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="I85" t="n">
-        <v>2790000</v>
+        <v>162900</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3375,28 +3375,28 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="F86" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="G86" t="n">
-        <v>0.23</v>
+        <v>0.205</v>
       </c>
       <c r="H86" t="n">
-        <v>0.24</v>
+        <v>0.205</v>
       </c>
       <c r="I86" t="n">
-        <v>4706600</v>
+        <v>207000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3410,28 +3410,28 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.24</v>
+        <v>0.205</v>
       </c>
       <c r="F87" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G87" t="n">
-        <v>0.23</v>
+        <v>0.205</v>
       </c>
       <c r="H87" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I87" t="n">
-        <v>348500</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3445,28 +3445,28 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.235</v>
+        <v>0.21</v>
       </c>
       <c r="F88" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="G88" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H88" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I88" t="n">
-        <v>5303000</v>
+        <v>126900</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3480,28 +3480,28 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="F89" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="G89" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H89" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="I89" t="n">
-        <v>1590400</v>
+        <v>1758900</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3515,28 +3515,28 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F90" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="G90" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H90" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="I90" t="n">
-        <v>32500</v>
+        <v>1880000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3550,28 +3550,28 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F91" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="G91" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="H91" t="n">
-        <v>0.205</v>
+        <v>0.23</v>
       </c>
       <c r="I91" t="n">
-        <v>7139100</v>
+        <v>499300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3585,28 +3585,28 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="F92" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="G92" t="n">
-        <v>0.19</v>
+        <v>0.225</v>
       </c>
       <c r="H92" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="I92" t="n">
-        <v>1442000</v>
+        <v>848300</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3620,28 +3620,28 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F93" t="n">
-        <v>0.21</v>
+        <v>0.235</v>
       </c>
       <c r="G93" t="n">
-        <v>0.195</v>
+        <v>0.22</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2</v>
+        <v>0.235</v>
       </c>
       <c r="I93" t="n">
-        <v>370000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3655,28 +3655,28 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="G94" t="n">
-        <v>0.19</v>
+        <v>0.225</v>
       </c>
       <c r="H94" t="n">
-        <v>0.19</v>
+        <v>0.235</v>
       </c>
       <c r="I94" t="n">
-        <v>829900</v>
+        <v>2790000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3690,28 +3690,28 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.19</v>
+        <v>0.235</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="G95" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="H95" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I95" t="n">
-        <v>2301000</v>
+        <v>4706600</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3725,28 +3725,28 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.185</v>
+        <v>0.24</v>
       </c>
       <c r="F96" t="n">
-        <v>0.195</v>
+        <v>0.24</v>
       </c>
       <c r="G96" t="n">
-        <v>0.185</v>
+        <v>0.23</v>
       </c>
       <c r="H96" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I96" t="n">
-        <v>2395900</v>
+        <v>348500</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3760,28 +3760,28 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.185</v>
+        <v>0.235</v>
       </c>
       <c r="F97" t="n">
-        <v>0.185</v>
+        <v>0.235</v>
       </c>
       <c r="G97" t="n">
-        <v>0.175</v>
+        <v>0.22</v>
       </c>
       <c r="H97" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I97" t="n">
-        <v>1229100</v>
+        <v>5303000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3795,28 +3795,28 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.18</v>
+        <v>0.215</v>
       </c>
       <c r="F98" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="G98" t="n">
-        <v>0.175</v>
+        <v>0.21</v>
       </c>
       <c r="H98" t="n">
-        <v>0.175</v>
+        <v>0.215</v>
       </c>
       <c r="I98" t="n">
-        <v>1876400</v>
+        <v>1590400</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3830,28 +3830,28 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.175</v>
+        <v>0.215</v>
       </c>
       <c r="F99" t="n">
-        <v>0.18</v>
+        <v>0.215</v>
       </c>
       <c r="G99" t="n">
-        <v>0.145</v>
+        <v>0.21</v>
       </c>
       <c r="H99" t="n">
-        <v>0.18</v>
+        <v>0.215</v>
       </c>
       <c r="I99" t="n">
-        <v>602000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3865,28 +3865,28 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.17</v>
+        <v>0.215</v>
       </c>
       <c r="F100" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G100" t="n">
-        <v>0.165</v>
+        <v>0.205</v>
       </c>
       <c r="H100" t="n">
-        <v>0.18</v>
+        <v>0.205</v>
       </c>
       <c r="I100" t="n">
-        <v>183000</v>
+        <v>7139100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3900,28 +3900,28 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="F101" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G101" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="H101" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I101" t="n">
-        <v>34000</v>
+        <v>1442000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3935,53 +3935,368 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="F102" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="G102" t="n">
-        <v>0.155</v>
+        <v>0.195</v>
       </c>
       <c r="H102" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I102" t="n">
-        <v>445600</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I103" t="n">
+        <v>829900</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2301000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2395900</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1229100</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1876400</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I108" t="n">
+        <v>602000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I109" t="n">
+        <v>183000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I110" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I111" t="n">
+        <v>445600</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>0212</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>SDS</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
         <v>0.155</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F112" t="n">
         <v>0.17</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G112" t="n">
         <v>0.155</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H112" t="n">
         <v>0.17</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I112" t="n">
         <v>123000</v>
       </c>
     </row>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,6 +4300,41 @@
         <v>123000</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I113" t="n">
+        <v>644100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4335,6 +4335,41 @@
         <v>644100</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I114" t="n">
+        <v>500400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4370,6 +4370,41 @@
         <v>500400</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I115" t="n">
+        <v>902200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4405,6 +4405,41 @@
         <v>902200</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I116" t="n">
+        <v>637100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4440,6 +4440,41 @@
         <v>637100</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2738000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4475,6 +4475,41 @@
         <v>2738000</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I118" t="n">
+        <v>612600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4510,6 +4510,41 @@
         <v>612600</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I119" t="n">
+        <v>604200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4545,6 +4545,41 @@
         <v>604200</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>605400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4580,6 +4580,41 @@
         <v>605400</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I121" t="n">
+        <v>478400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4615,6 +4615,41 @@
         <v>478400</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I122" t="n">
+        <v>742000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4650,6 +4650,41 @@
         <v>742000</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I123" t="n">
+        <v>481200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4685,6 +4685,41 @@
         <v>481200</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I124" t="n">
+        <v>127700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4720,6 +4720,41 @@
         <v>127700</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I125" t="n">
+        <v>361200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4755,6 +4755,41 @@
         <v>361200</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I126" t="n">
+        <v>738800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4790,6 +4790,41 @@
         <v>738800</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I127" t="n">
+        <v>7557800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4825,6 +4825,41 @@
         <v>7557800</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1418700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4860,6 +4860,41 @@
         <v>1418700</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1740700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4895,6 +4895,41 @@
         <v>1740700</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I130" t="n">
+        <v>831600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4930,6 +4930,41 @@
         <v>831600</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1445500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4965,6 +4965,41 @@
         <v>1445500</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I132" t="n">
+        <v>985000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5000,6 +5000,41 @@
         <v>985000</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I133" t="n">
+        <v>217000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5035,6 +5035,41 @@
         <v>217000</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I134" t="n">
+        <v>176600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5070,6 +5070,41 @@
         <v>176600</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I135" t="n">
+        <v>306400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5105,6 +5105,41 @@
         <v>306400</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I136" t="n">
+        <v>85700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5140,6 +5140,41 @@
         <v>85700</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1243000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5175,6 +5175,76 @@
         <v>1243000</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2596100</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I139" t="n">
+        <v>434100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5245,6 +5245,41 @@
         <v>434100</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2520000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5280,6 +5280,111 @@
         <v>2520000</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1601300</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I143" t="n">
+        <v>19053400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5385,6 +5385,41 @@
         <v>19053400</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2538400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5420,6 +5420,41 @@
         <v>2538400</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I145" t="n">
+        <v>760700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0212.xlsx
+++ b/data/0212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5455,6 +5455,111 @@
         <v>760700</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2734700</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I147" t="n">
+        <v>372900</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I148" t="n">
+        <v>877500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
